--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18893.6</v>
+        <v>39450.32</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2699.09</v>
+        <v>3945.03</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9475.83</v>
+        <v>9497.549999999999</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1608.24</v>
+        <v>1603.64</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5927.31</v>
+        <v>5924.09</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>946.0599999999999</v>
+        <v>147.69</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>936.16</v>
+        <v>964.84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>21312.51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,73 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39450.32</v>
+        <v>9497.549999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9291.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3945.03</v>
+        <v>1603.64</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1621.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9497.549999999999</v>
-      </c>
+        <v>5924.09</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1603.64</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5924.09</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -499,6 +517,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -509,6 +530,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -519,6 +543,9 @@
       <c r="B9" t="n">
         <v>147.69</v>
       </c>
+      <c r="C9" t="n">
+        <v>158.17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -529,35 +556,47 @@
       <c r="B10" t="n">
         <v>964.84</v>
       </c>
+      <c r="C10" t="n">
+        <v>930.99</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>21312.51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21680.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21312.51</v>
+        <v>3945.03</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3742.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>39450.32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33682.39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,125 +439,166 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39597.35</v>
+        <v>9291.27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9303.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3959.73</v>
+        <v>1621.65</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1503.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9291.27</v>
+        <v>5914.96</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5920.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1621.65</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5914.96</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>158.17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>174.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>930.99</v>
+      </c>
+      <c r="C10" t="n">
+        <v>931.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.17</v>
+        <v>21680.31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21273.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.99</v>
+        <v>3959.73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3910.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21680.31</v>
+        <v>39597.35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>39106.16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -506,9 +506,7 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -519,9 +517,7 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -585,7 +581,7 @@
         <v>3959.73</v>
       </c>
       <c r="C12" t="n">
-        <v>3910.62</v>
+        <v>4888.27</v>
       </c>
     </row>
     <row r="13">

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9291.27</v>
+        <v>9325.629999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9303.52</v>
+        <v>9297.139999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9292.91</v>
+        <v>9613.219999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9284.17</v>
+        <v>9299.65</v>
       </c>
       <c r="F2" t="n">
-        <v>9302.1</v>
+        <v>9318.08</v>
       </c>
       <c r="G2" t="n">
-        <v>9281.700000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9296.49</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9289.82</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9290.450000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9283.610000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9320.83</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9325.629999999999</v>
+        <v>9271.73</v>
       </c>
     </row>
     <row r="3">
@@ -545,81 +497,53 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1621.65</v>
+        <v>1586.7</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.25</v>
+        <v>1510.37</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.49</v>
+        <v>1668.32</v>
       </c>
       <c r="E3" t="n">
-        <v>1491.46</v>
+        <v>1536.55</v>
       </c>
       <c r="F3" t="n">
-        <v>1596.82</v>
+        <v>1577.96</v>
       </c>
       <c r="G3" t="n">
-        <v>1531.26</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1625.57</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1569.94</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1579.63</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1615.29</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1596.12</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1586.7</v>
+        <v>1526.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5914.96</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5920.19</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5929.09</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5039.62</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1490.81</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1502.51</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1490.44</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1472.75</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -638,37 +562,21 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
@@ -679,37 +587,21 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
@@ -720,279 +612,107 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>917.87</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>957.95</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>989.64</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>939.39</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>955.95</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
+        <v>967.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.17</v>
+        <v>26215.04</v>
       </c>
       <c r="C9" t="n">
-        <v>174.3</v>
+        <v>25183.01</v>
       </c>
       <c r="D9" t="n">
-        <v>182.2</v>
+        <v>25431.03</v>
       </c>
       <c r="E9" t="n">
-        <v>188.1</v>
+        <v>22282.66</v>
       </c>
       <c r="F9" t="n">
-        <v>178.51</v>
+        <v>21767.06</v>
       </c>
       <c r="G9" t="n">
-        <v>166.06</v>
-      </c>
-      <c r="H9" t="n">
-        <v>162.55</v>
-      </c>
-      <c r="I9" t="n">
-        <v>142.37</v>
-      </c>
-      <c r="J9" t="n">
-        <v>188.18</v>
-      </c>
-      <c r="K9" t="n">
-        <v>178.82</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>22495.51</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>930.99</v>
+        <v>4755.65</v>
       </c>
       <c r="C10" t="n">
-        <v>931.88</v>
+        <v>4618.56</v>
       </c>
       <c r="D10" t="n">
-        <v>972.3200000000001</v>
+        <v>4712.78</v>
       </c>
       <c r="E10" t="n">
-        <v>945.64</v>
+        <v>4257.28</v>
       </c>
       <c r="F10" t="n">
-        <v>938.21</v>
+        <v>4202.38</v>
       </c>
       <c r="G10" t="n">
-        <v>905.14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>976.02</v>
-      </c>
-      <c r="I10" t="n">
-        <v>945.13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>960.62</v>
-      </c>
-      <c r="K10" t="n">
-        <v>937.99</v>
-      </c>
-      <c r="L10" t="n">
-        <v>915.5700000000001</v>
-      </c>
-      <c r="M10" t="n">
-        <v>917.87</v>
+        <v>4282.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21680.31</v>
+        <v>38045.24</v>
       </c>
       <c r="C11" t="n">
-        <v>21273.02</v>
+        <v>36948.47</v>
       </c>
       <c r="D11" t="n">
-        <v>21584.28</v>
+        <v>37702.21</v>
       </c>
       <c r="E11" t="n">
-        <v>22397.9</v>
+        <v>34058.25</v>
       </c>
       <c r="F11" t="n">
-        <v>22787.19</v>
+        <v>33619.05</v>
       </c>
       <c r="G11" t="n">
-        <v>21314.77</v>
-      </c>
-      <c r="H11" t="n">
-        <v>21221.49</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21284.21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>22278.66</v>
-      </c>
-      <c r="K11" t="n">
-        <v>22939.64</v>
-      </c>
-      <c r="L11" t="n">
-        <v>25391.77</v>
-      </c>
-      <c r="M11" t="n">
-        <v>26215.04</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3959.73</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4888.27</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3953.13</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3934.69</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3629.36</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3470.14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3477.26</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3470.42</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3810.84</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3883.93</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4653.04</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4755.65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>39597.35</v>
-      </c>
-      <c r="C13" t="n">
-        <v>39106.16</v>
-      </c>
-      <c r="D13" t="n">
-        <v>39531.29</v>
-      </c>
-      <c r="E13" t="n">
-        <v>39346.89</v>
-      </c>
-      <c r="F13" t="n">
-        <v>36293.64</v>
-      </c>
-      <c r="G13" t="n">
-        <v>34701.44</v>
-      </c>
-      <c r="H13" t="n">
-        <v>34772.56</v>
-      </c>
-      <c r="I13" t="n">
-        <v>34704.22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>34297.54</v>
-      </c>
-      <c r="K13" t="n">
-        <v>34955.35</v>
-      </c>
-      <c r="L13" t="n">
-        <v>37224.29</v>
-      </c>
-      <c r="M13" t="n">
-        <v>38045.24</v>
+        <v>34261.18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>9291.27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9303.52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9292.91</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9284.17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9302.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9281.700000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9296.49</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9289.82</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9290.450000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9283.610000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9320.83</v>
+      </c>
+      <c r="M2" t="n">
         <v>9325.629999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9297.139999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9613.219999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9299.65</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9318.08</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9271.73</v>
       </c>
     </row>
     <row r="3">
@@ -497,53 +545,81 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1621.65</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1503.25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1570.49</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1491.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1596.82</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1531.26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1625.57</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1569.94</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1579.63</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1615.29</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1596.12</v>
+      </c>
+      <c r="M3" t="n">
         <v>1586.7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1510.37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1668.32</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1536.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1577.96</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1526.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5914.96</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5920.19</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5929.09</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5039.62</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1490.81</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
+        <v>1502.51</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1490.44</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1472.75</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -562,21 +638,37 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>0</v>
       </c>
@@ -587,21 +679,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>0</v>
       </c>
@@ -612,107 +720,279 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>917.87</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>957.95</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>989.64</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>939.39</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>955.95</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>967.72</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26215.04</v>
+        <v>158.17</v>
       </c>
       <c r="C9" t="n">
-        <v>25183.01</v>
+        <v>174.3</v>
       </c>
       <c r="D9" t="n">
-        <v>25431.03</v>
+        <v>182.2</v>
       </c>
       <c r="E9" t="n">
-        <v>22282.66</v>
+        <v>188.1</v>
       </c>
       <c r="F9" t="n">
-        <v>21767.06</v>
+        <v>178.51</v>
       </c>
       <c r="G9" t="n">
-        <v>22495.51</v>
-      </c>
+        <v>166.06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>162.55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>142.37</v>
+      </c>
+      <c r="J9" t="n">
+        <v>188.18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>178.82</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4755.65</v>
+        <v>930.99</v>
       </c>
       <c r="C10" t="n">
-        <v>4618.56</v>
+        <v>931.88</v>
       </c>
       <c r="D10" t="n">
-        <v>4712.78</v>
+        <v>972.3200000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>4257.28</v>
+        <v>945.64</v>
       </c>
       <c r="F10" t="n">
-        <v>4202.38</v>
+        <v>938.21</v>
       </c>
       <c r="G10" t="n">
-        <v>4282.65</v>
+        <v>905.14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>976.02</v>
+      </c>
+      <c r="I10" t="n">
+        <v>945.13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>960.62</v>
+      </c>
+      <c r="K10" t="n">
+        <v>937.99</v>
+      </c>
+      <c r="L10" t="n">
+        <v>915.5700000000001</v>
+      </c>
+      <c r="M10" t="n">
+        <v>917.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21680.31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21273.02</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21584.28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22397.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22787.19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21314.77</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21221.49</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21284.21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22278.66</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22939.64</v>
+      </c>
+      <c r="L11" t="n">
+        <v>25391.77</v>
+      </c>
+      <c r="M11" t="n">
+        <v>26215.04</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3959.73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4888.27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3953.13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3934.69</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3629.36</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3470.14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3477.26</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3470.42</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3810.84</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3883.93</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4653.04</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4755.65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B13" t="n">
+        <v>39597.35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>39106.16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39531.29</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39346.89</v>
+      </c>
+      <c r="F13" t="n">
+        <v>36293.64</v>
+      </c>
+      <c r="G13" t="n">
+        <v>34701.44</v>
+      </c>
+      <c r="H13" t="n">
+        <v>34772.56</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34704.22</v>
+      </c>
+      <c r="J13" t="n">
+        <v>34297.54</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34955.35</v>
+      </c>
+      <c r="L13" t="n">
+        <v>37224.29</v>
+      </c>
+      <c r="M13" t="n">
         <v>38045.24</v>
-      </c>
-      <c r="C11" t="n">
-        <v>36948.47</v>
-      </c>
-      <c r="D11" t="n">
-        <v>37702.21</v>
-      </c>
-      <c r="E11" t="n">
-        <v>34058.25</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33619.05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>34261.18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9291.27</v>
+        <v>9325.629999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9303.52</v>
+        <v>9297.139999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9292.91</v>
+        <v>9613.219999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9284.17</v>
+        <v>9299.65</v>
       </c>
       <c r="F2" t="n">
-        <v>9302.1</v>
+        <v>9318.08</v>
       </c>
       <c r="G2" t="n">
-        <v>9281.700000000001</v>
+        <v>9271.73</v>
       </c>
       <c r="H2" t="n">
-        <v>9296.49</v>
+        <v>9329.91</v>
       </c>
       <c r="I2" t="n">
-        <v>9289.82</v>
+        <v>9293.290000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>9290.450000000001</v>
+        <v>9302.870000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>9283.610000000001</v>
+        <v>9297.620000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>9320.83</v>
+        <v>9310.190000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>9325.629999999999</v>
+        <v>9330.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9276.450000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9292.65</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9321.370000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9316.790000000001</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9326.02</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9326.23</v>
+      </c>
+      <c r="T2" t="n">
+        <v>9277.719999999999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9304.17</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9329.379999999999</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9273.33</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9285.23</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9312.860000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9294.219999999999</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9317.08</v>
       </c>
     </row>
     <row r="3">
@@ -545,81 +657,173 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1621.65</v>
+        <v>1586.7</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.25</v>
+        <v>1510.37</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.49</v>
+        <v>1668.32</v>
       </c>
       <c r="E3" t="n">
-        <v>1491.46</v>
+        <v>1536.55</v>
       </c>
       <c r="F3" t="n">
-        <v>1596.82</v>
+        <v>1577.96</v>
       </c>
       <c r="G3" t="n">
-        <v>1531.26</v>
+        <v>1526.22</v>
       </c>
       <c r="H3" t="n">
-        <v>1625.57</v>
+        <v>1611.65</v>
       </c>
       <c r="I3" t="n">
-        <v>1569.94</v>
+        <v>1524.93</v>
       </c>
       <c r="J3" t="n">
-        <v>1579.63</v>
+        <v>1588.23</v>
       </c>
       <c r="K3" t="n">
-        <v>1615.29</v>
+        <v>1540.54</v>
       </c>
       <c r="L3" t="n">
-        <v>1596.12</v>
+        <v>1570.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1586.7</v>
+        <v>1583.12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1581.72</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1530.23</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1536.68</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1566.09</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1595.31</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1552.04</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1585.9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1572.35</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1548.21</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1527.82</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1571.9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1576.82</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1536.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5914.96</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5920.19</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5929.09</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5039.62</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1490.81</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1502.51</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1490.44</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1472.75</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -650,25 +854,69 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>136.24</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>135.7</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>143.87</v>
+      </c>
+      <c r="N5" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>149.71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>142.78</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>144.34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>129.02</v>
+      </c>
+      <c r="S5" t="n">
+        <v>124.58</v>
+      </c>
+      <c r="T5" t="n">
+        <v>123.34</v>
+      </c>
+      <c r="U5" t="n">
+        <v>118.97</v>
+      </c>
+      <c r="V5" t="n">
+        <v>116.12</v>
+      </c>
+      <c r="W5" t="n">
+        <v>117.69</v>
+      </c>
+      <c r="X5" t="n">
+        <v>102.27</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>100.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
@@ -697,19 +945,63 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
@@ -738,261 +1030,383 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>917.87</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>957.95</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>989.64</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>939.39</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>955.95</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>967.72</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>923.59</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>932.9299999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>914.29</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>926.97</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>930.21</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>928.21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>940.42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>915.9299999999999</v>
+      </c>
+      <c r="P8" t="n">
+        <v>961.37</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>965.35</v>
+      </c>
+      <c r="R8" t="n">
+        <v>946.74</v>
+      </c>
+      <c r="S8" t="n">
+        <v>913.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>926.9400000000001</v>
+      </c>
+      <c r="U8" t="n">
+        <v>967.42</v>
+      </c>
+      <c r="V8" t="n">
+        <v>952.26</v>
+      </c>
+      <c r="W8" t="n">
+        <v>906</v>
+      </c>
+      <c r="X8" t="n">
+        <v>916.83</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>947.64</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>953.64</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>927.1799999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.17</v>
+        <v>26215.04</v>
       </c>
       <c r="C9" t="n">
-        <v>174.3</v>
+        <v>25183.01</v>
       </c>
       <c r="D9" t="n">
-        <v>182.2</v>
+        <v>25431.03</v>
       </c>
       <c r="E9" t="n">
-        <v>188.1</v>
+        <v>22282.66</v>
       </c>
       <c r="F9" t="n">
-        <v>178.51</v>
+        <v>21767.06</v>
       </c>
       <c r="G9" t="n">
-        <v>166.06</v>
+        <v>22495.51</v>
       </c>
       <c r="H9" t="n">
-        <v>162.55</v>
+        <v>21397.26</v>
       </c>
       <c r="I9" t="n">
-        <v>142.37</v>
+        <v>21204.82</v>
       </c>
       <c r="J9" t="n">
-        <v>188.18</v>
+        <v>18268.78</v>
       </c>
       <c r="K9" t="n">
-        <v>178.82</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>15510.73</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15190.99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15276.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15683.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>14905.46</v>
+      </c>
+      <c r="P9" t="n">
+        <v>14322.93</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>14305.01</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12127.66</v>
+      </c>
+      <c r="S9" t="n">
+        <v>12332.35</v>
+      </c>
+      <c r="T9" t="n">
+        <v>12944.99</v>
+      </c>
+      <c r="U9" t="n">
+        <v>11858.04</v>
+      </c>
+      <c r="V9" t="n">
+        <v>11177.48</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10759.16</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9332.09</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>930.99</v>
+        <v>4755.65</v>
       </c>
       <c r="C10" t="n">
-        <v>931.88</v>
+        <v>4618.56</v>
       </c>
       <c r="D10" t="n">
-        <v>972.3200000000001</v>
+        <v>4712.78</v>
       </c>
       <c r="E10" t="n">
-        <v>945.64</v>
+        <v>4257.28</v>
       </c>
       <c r="F10" t="n">
-        <v>938.21</v>
+        <v>4202.38</v>
       </c>
       <c r="G10" t="n">
-        <v>905.14</v>
+        <v>4282.65</v>
       </c>
       <c r="H10" t="n">
-        <v>976.02</v>
+        <v>4157.8</v>
       </c>
       <c r="I10" t="n">
-        <v>945.13</v>
+        <v>4119.5</v>
       </c>
       <c r="J10" t="n">
-        <v>960.62</v>
+        <v>3759.27</v>
       </c>
       <c r="K10" t="n">
-        <v>937.99</v>
+        <v>3426.51</v>
       </c>
       <c r="L10" t="n">
-        <v>915.5700000000001</v>
+        <v>3392.18</v>
       </c>
       <c r="M10" t="n">
-        <v>917.87</v>
+        <v>3407.7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3454.51</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3349.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3285.64</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3287.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3015.59</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3031.07</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3107.36</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2977.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2890.43</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2823</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2651.04</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1704.7</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1698.78</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1697.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21680.31</v>
+        <v>38045.24</v>
       </c>
       <c r="C11" t="n">
-        <v>21273.02</v>
+        <v>36948.47</v>
       </c>
       <c r="D11" t="n">
-        <v>21584.28</v>
+        <v>37702.21</v>
       </c>
       <c r="E11" t="n">
-        <v>22397.9</v>
+        <v>34058.25</v>
       </c>
       <c r="F11" t="n">
-        <v>22787.19</v>
+        <v>33619.05</v>
       </c>
       <c r="G11" t="n">
-        <v>21314.77</v>
+        <v>34261.18</v>
       </c>
       <c r="H11" t="n">
-        <v>21221.49</v>
+        <v>33262.41</v>
       </c>
       <c r="I11" t="n">
-        <v>21284.21</v>
+        <v>32955.97</v>
       </c>
       <c r="J11" t="n">
-        <v>22278.66</v>
+        <v>30074.17</v>
       </c>
       <c r="K11" t="n">
-        <v>22939.64</v>
+        <v>27412.1</v>
       </c>
       <c r="L11" t="n">
-        <v>25391.77</v>
+        <v>27137.44</v>
       </c>
       <c r="M11" t="n">
-        <v>26215.04</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3959.73</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4888.27</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3953.13</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3934.69</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3629.36</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3470.14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3477.26</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3470.42</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3810.84</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3883.93</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4653.04</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4755.65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>39597.35</v>
-      </c>
-      <c r="C13" t="n">
-        <v>39106.16</v>
-      </c>
-      <c r="D13" t="n">
-        <v>39531.29</v>
-      </c>
-      <c r="E13" t="n">
-        <v>39346.89</v>
-      </c>
-      <c r="F13" t="n">
-        <v>36293.64</v>
-      </c>
-      <c r="G13" t="n">
-        <v>34701.44</v>
-      </c>
-      <c r="H13" t="n">
-        <v>34772.56</v>
-      </c>
-      <c r="I13" t="n">
-        <v>34704.22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>34297.54</v>
-      </c>
-      <c r="K13" t="n">
-        <v>34955.35</v>
-      </c>
-      <c r="L13" t="n">
-        <v>37224.29</v>
-      </c>
-      <c r="M13" t="n">
-        <v>38045.24</v>
+        <v>27261.64</v>
+      </c>
+      <c r="N11" t="n">
+        <v>27636.04</v>
+      </c>
+      <c r="O11" t="n">
+        <v>26793.98</v>
+      </c>
+      <c r="P11" t="n">
+        <v>26285.13</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>26297.58</v>
+      </c>
+      <c r="R11" t="n">
+        <v>24124.75</v>
+      </c>
+      <c r="S11" t="n">
+        <v>24248.56</v>
+      </c>
+      <c r="T11" t="n">
+        <v>24858.89</v>
+      </c>
+      <c r="U11" t="n">
+        <v>23820.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>23123.45</v>
+      </c>
+      <c r="W11" t="n">
+        <v>22584</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21208.32</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11932.9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11891.46</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11880.95</v>
       </c>
     </row>
   </sheetData>
